--- a/graphs/graf_A6b.xlsx
+++ b/graphs/graf_A6b.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.74177234654678</v>
+        <v>30.69974814616551</v>
       </c>
       <c r="C2" t="n">
-        <v>62.18064862231948</v>
+        <v>57.37842885952426</v>
       </c>
       <c r="D2" t="n">
-        <v>59.41903723182529</v>
+        <v>61.19590916430382</v>
       </c>
       <c r="E2" t="n">
-        <v>56.47178827322775</v>
+        <v>57.63094010533594</v>
       </c>
       <c r="F2" t="n">
-        <v>54.37067399358619</v>
+        <v>54.35736347313129</v>
       </c>
       <c r="G2" t="n">
-        <v>58.23525148940115</v>
+        <v>55.48958904964684</v>
       </c>
       <c r="H2" t="n">
-        <v>56.8477302638232</v>
+        <v>57.08950356948912</v>
       </c>
       <c r="I2" t="n">
-        <v>57.17064554575204</v>
+        <v>54.78042926235237</v>
       </c>
       <c r="J2" t="n">
-        <v>56.64290622476072</v>
+        <v>59.11678244780061</v>
       </c>
       <c r="K2" t="n">
-        <v>54.02713294622769</v>
+        <v>55.23849307781769</v>
       </c>
       <c r="L2" t="n">
-        <v>55.0292090577191</v>
+        <v>52.43437096776377</v>
       </c>
       <c r="M2" t="n">
-        <v>52.88930092093869</v>
+        <v>42.87982870454118</v>
       </c>
       <c r="N2" t="n">
-        <v>54.93833422353718</v>
+        <v>55.96972279587842</v>
       </c>
       <c r="O2" t="n">
-        <v>49.72986500935158</v>
+        <v>50.9120130510405</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.177571976521424</v>
+        <v>8.186572132657565</v>
       </c>
       <c r="C3" t="n">
-        <v>7.717323582603214</v>
+        <v>6.621092981259978</v>
       </c>
       <c r="D3" t="n">
-        <v>5.432532926446357</v>
+        <v>5.181632089668177</v>
       </c>
       <c r="E3" t="n">
-        <v>7.17264682455721</v>
+        <v>6.173560890306901</v>
       </c>
       <c r="F3" t="n">
-        <v>13.11085824781559</v>
+        <v>13.91518722991834</v>
       </c>
       <c r="G3" t="n">
-        <v>7.125826108612418</v>
+        <v>7.944584207159928</v>
       </c>
       <c r="H3" t="n">
-        <v>10.52177842172381</v>
+        <v>8.757166897547673</v>
       </c>
       <c r="I3" t="n">
-        <v>14.69025098970324</v>
+        <v>14.11480616187485</v>
       </c>
       <c r="J3" t="n">
-        <v>6.787406873057996</v>
+        <v>6.465214856926731</v>
       </c>
       <c r="K3" t="n">
-        <v>11.53477181475749</v>
+        <v>10.34283813826715</v>
       </c>
       <c r="L3" t="n">
-        <v>11.18889694508616</v>
+        <v>15.58681260284516</v>
       </c>
       <c r="M3" t="n">
-        <v>8.801851974533985</v>
+        <v>6.772650326967689</v>
       </c>
       <c r="N3" t="n">
-        <v>12.74357949037417</v>
+        <v>11.75821448202157</v>
       </c>
       <c r="O3" t="n">
-        <v>13.87163490493413</v>
+        <v>13.53689120213216</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.21252422189228</v>
+        <v>23.72981875360994</v>
       </c>
       <c r="C4" t="n">
-        <v>7.973034081930154</v>
+        <v>6.422413243228767</v>
       </c>
       <c r="D4" t="n">
-        <v>6.754282704207861</v>
+        <v>6.165079262883859</v>
       </c>
       <c r="E4" t="n">
-        <v>8.673540054460503</v>
+        <v>8.107714456409964</v>
       </c>
       <c r="F4" t="n">
-        <v>11.94596366796696</v>
+        <v>10.87319136489846</v>
       </c>
       <c r="G4" t="n">
-        <v>9.50825872596071</v>
+        <v>8.990118465307946</v>
       </c>
       <c r="H4" t="n">
-        <v>7.996585021822852</v>
+        <v>7.798866882124768</v>
       </c>
       <c r="I4" t="n">
-        <v>7.487498588276003</v>
+        <v>6.673363061609995</v>
       </c>
       <c r="J4" t="n">
-        <v>9.868069344961265</v>
+        <v>9.289809745122326</v>
       </c>
       <c r="K4" t="n">
-        <v>6.556537379690409</v>
+        <v>6.525139578354314</v>
       </c>
       <c r="L4" t="n">
-        <v>8.982363610595549</v>
+        <v>7.542947719591246</v>
       </c>
       <c r="M4" t="n">
-        <v>9.219360340659419</v>
+        <v>14.55018731314661</v>
       </c>
       <c r="N4" t="n">
-        <v>8.466025678127128</v>
+        <v>7.690098922744254</v>
       </c>
       <c r="O4" t="n">
-        <v>8.968023843363992</v>
+        <v>7.952727580809045</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.592130196801711</v>
+        <v>5.559973694315962</v>
       </c>
       <c r="C5" t="n">
-        <v>8.613168193627221</v>
+        <v>7.897394995307415</v>
       </c>
       <c r="D5" t="n">
-        <v>11.19887735205916</v>
+        <v>11.15473986370799</v>
       </c>
       <c r="E5" t="n">
-        <v>12.92390102608069</v>
+        <v>12.32845635830232</v>
       </c>
       <c r="F5" t="n">
-        <v>7.361311505706953</v>
+        <v>7.127589764201173</v>
       </c>
       <c r="G5" t="n">
-        <v>11.76215236634313</v>
+        <v>11.51073717218257</v>
       </c>
       <c r="H5" t="n">
-        <v>8.717483074968227</v>
+        <v>8.512283819568818</v>
       </c>
       <c r="I5" t="n">
-        <v>8.440789766146974</v>
+        <v>8.20316787188027</v>
       </c>
       <c r="J5" t="n">
-        <v>10.81433526362367</v>
+        <v>11.72243038306294</v>
       </c>
       <c r="K5" t="n">
-        <v>10.51400438927699</v>
+        <v>10.58426351064018</v>
       </c>
       <c r="L5" t="n">
-        <v>8.203068532160108</v>
+        <v>7.842557938426226</v>
       </c>
       <c r="M5" t="n">
-        <v>11.00924269940958</v>
+        <v>10.27175289270864</v>
       </c>
       <c r="N5" t="n">
-        <v>10.50127484650911</v>
+        <v>10.39802203114045</v>
       </c>
       <c r="O5" t="n">
-        <v>8.742318686486442</v>
+        <v>9.208229066553136</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.369700416411636</v>
+        <v>1.296619514697857</v>
       </c>
       <c r="C6" t="n">
-        <v>5.423932072986627</v>
+        <v>4.740384820476736</v>
       </c>
       <c r="D6" t="n">
-        <v>4.815798500377834</v>
+        <v>5.138530617792837</v>
       </c>
       <c r="E6" t="n">
-        <v>3.636701171525891</v>
+        <v>3.762123406240665</v>
       </c>
       <c r="F6" t="n">
-        <v>4.706933792974422</v>
+        <v>3.817365816508537</v>
       </c>
       <c r="G6" t="n">
-        <v>4.385944505072188</v>
+        <v>6.407645469596003</v>
       </c>
       <c r="H6" t="n">
-        <v>4.14850969698549</v>
+        <v>3.330621041069892</v>
       </c>
       <c r="I6" t="n">
-        <v>3.472439791167067</v>
+        <v>5.110864742668345</v>
       </c>
       <c r="J6" t="n">
-        <v>2.658535313986443</v>
+        <v>2.617345126380757</v>
       </c>
       <c r="K6" t="n">
-        <v>7.741315760596895</v>
+        <v>6.170682270935314</v>
       </c>
       <c r="L6" t="n">
-        <v>5.773136766474688</v>
+        <v>4.843637806673148</v>
       </c>
       <c r="M6" t="n">
-        <v>5.251133866213949</v>
+        <v>6.749549849638142</v>
       </c>
       <c r="N6" t="n">
-        <v>3.538084223655596</v>
+        <v>3.196653450764274</v>
       </c>
       <c r="O6" t="n">
-        <v>7.415161582107641</v>
+        <v>7.829256418405938</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.21067561036234</v>
+        <v>9.126596581722273</v>
       </c>
       <c r="C7" t="n">
-        <v>2.276477792435483</v>
+        <v>2.279624770233523</v>
       </c>
       <c r="D7" t="n">
-        <v>1.880934055234448</v>
+        <v>1.913381654977431</v>
       </c>
       <c r="E7" t="n">
-        <v>3.061119941322288</v>
+        <v>3.721587563084591</v>
       </c>
       <c r="F7" t="n">
-        <v>2.156512637645154</v>
+        <v>1.784792688035565</v>
       </c>
       <c r="G7" t="n">
-        <v>2.597370217502268</v>
+        <v>2.325534512323003</v>
       </c>
       <c r="H7" t="n">
-        <v>2.863384926906305</v>
+        <v>2.76007675411847</v>
       </c>
       <c r="I7" t="n">
-        <v>3.237132041241274</v>
+        <v>3.219143119989854</v>
       </c>
       <c r="J7" t="n">
-        <v>3.673140025492056</v>
+        <v>3.816788897114096</v>
       </c>
       <c r="K7" t="n">
-        <v>2.797756093461756</v>
+        <v>3.725073840463752</v>
       </c>
       <c r="L7" t="n">
-        <v>2.884885461452212</v>
+        <v>2.567780909146352</v>
       </c>
       <c r="M7" t="n">
-        <v>4.375475637945296</v>
+        <v>3.279438929634634</v>
       </c>
       <c r="N7" t="n">
-        <v>2.293580387922897</v>
+        <v>2.098806025680528</v>
       </c>
       <c r="O7" t="n">
-        <v>2.517121246257346</v>
+        <v>2.378068998868821</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.331198774662425</v>
+        <v>3.416293847460614</v>
       </c>
       <c r="C8" t="n">
-        <v>1.38509443490425</v>
+        <v>1.408885741221482</v>
       </c>
       <c r="D8" t="n">
-        <v>1.959204555567077</v>
+        <v>1.694164328487935</v>
       </c>
       <c r="E8" t="n">
-        <v>2.564092389800277</v>
+        <v>2.477226010167129</v>
       </c>
       <c r="F8" t="n">
-        <v>1.670571266212922</v>
+        <v>1.514084750500108</v>
       </c>
       <c r="G8" t="n">
-        <v>1.911375088283461</v>
+        <v>1.754839435541624</v>
       </c>
       <c r="H8" t="n">
-        <v>2.041588219446828</v>
+        <v>2.177836313080233</v>
       </c>
       <c r="I8" t="n">
-        <v>1.880049123742429</v>
+        <v>2.053509764260443</v>
       </c>
       <c r="J8" t="n">
-        <v>2.566124269033158</v>
+        <v>2.207656338122459</v>
       </c>
       <c r="K8" t="n">
-        <v>2.16288470023133</v>
+        <v>1.867929076902376</v>
       </c>
       <c r="L8" t="n">
-        <v>3.554673745957689</v>
+        <v>3.680973615324593</v>
       </c>
       <c r="M8" t="n">
-        <v>2.998704105299218</v>
+        <v>6.352085147822566</v>
       </c>
       <c r="N8" t="n">
-        <v>2.811792779360872</v>
+        <v>2.118628542296632</v>
       </c>
       <c r="O8" t="n">
-        <v>1.938378041965687</v>
+        <v>1.637402015540546</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.3644264568014</v>
+        <v>17.98437732937028</v>
       </c>
       <c r="C9" t="n">
-        <v>4.430321219193573</v>
+        <v>13.25177458874784</v>
       </c>
       <c r="D9" t="n">
-        <v>8.539332674281985</v>
+        <v>7.556563018177935</v>
       </c>
       <c r="E9" t="n">
-        <v>5.496210319025387</v>
+        <v>5.798391210152489</v>
       </c>
       <c r="F9" t="n">
-        <v>4.67717488809181</v>
+        <v>6.610424912806525</v>
       </c>
       <c r="G9" t="n">
-        <v>4.473821498824696</v>
+        <v>5.576951688242107</v>
       </c>
       <c r="H9" t="n">
-        <v>6.86294037432328</v>
+        <v>9.573644723001024</v>
       </c>
       <c r="I9" t="n">
-        <v>3.62119415397097</v>
+        <v>5.844716015363868</v>
       </c>
       <c r="J9" t="n">
-        <v>6.989482685084679</v>
+        <v>4.763972205470069</v>
       </c>
       <c r="K9" t="n">
-        <v>4.665596915757445</v>
+        <v>5.545580506619227</v>
       </c>
       <c r="L9" t="n">
-        <v>4.383765880554509</v>
+        <v>5.500918440229507</v>
       </c>
       <c r="M9" t="n">
-        <v>5.454930454999854</v>
+        <v>9.144506835540527</v>
       </c>
       <c r="N9" t="n">
-        <v>4.707328370513061</v>
+        <v>6.769853749473874</v>
       </c>
       <c r="O9" t="n">
-        <v>6.817496685533188</v>
+        <v>6.545411666649868</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/graf_A6b.xlsx
+++ b/graphs/graf_A6b.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.69974814616551</v>
+        <v>28.74177234654678</v>
       </c>
       <c r="C2" t="n">
-        <v>57.37842885952426</v>
+        <v>62.18064862231948</v>
       </c>
       <c r="D2" t="n">
-        <v>61.19590916430382</v>
+        <v>59.41903723182529</v>
       </c>
       <c r="E2" t="n">
-        <v>57.63094010533594</v>
+        <v>56.47178827322775</v>
       </c>
       <c r="F2" t="n">
-        <v>54.35736347313129</v>
+        <v>54.37067399358619</v>
       </c>
       <c r="G2" t="n">
-        <v>55.48958904964684</v>
+        <v>58.23525148940115</v>
       </c>
       <c r="H2" t="n">
-        <v>57.08950356948912</v>
+        <v>56.8477302638232</v>
       </c>
       <c r="I2" t="n">
-        <v>54.78042926235237</v>
+        <v>57.17064554575204</v>
       </c>
       <c r="J2" t="n">
-        <v>59.11678244780061</v>
+        <v>56.64290622476072</v>
       </c>
       <c r="K2" t="n">
-        <v>55.23849307781769</v>
+        <v>54.02713294622769</v>
       </c>
       <c r="L2" t="n">
-        <v>52.43437096776377</v>
+        <v>55.0292090577191</v>
       </c>
       <c r="M2" t="n">
-        <v>42.87982870454118</v>
+        <v>52.88930092093869</v>
       </c>
       <c r="N2" t="n">
-        <v>55.96972279587842</v>
+        <v>54.93833422353718</v>
       </c>
       <c r="O2" t="n">
-        <v>50.9120130510405</v>
+        <v>49.72986500935158</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.186572132657565</v>
+        <v>8.177571976521424</v>
       </c>
       <c r="C3" t="n">
-        <v>6.621092981259978</v>
+        <v>7.717323582603214</v>
       </c>
       <c r="D3" t="n">
-        <v>5.181632089668177</v>
+        <v>5.432532926446357</v>
       </c>
       <c r="E3" t="n">
-        <v>6.173560890306901</v>
+        <v>7.17264682455721</v>
       </c>
       <c r="F3" t="n">
-        <v>13.91518722991834</v>
+        <v>13.11085824781559</v>
       </c>
       <c r="G3" t="n">
-        <v>7.944584207159928</v>
+        <v>7.125826108612418</v>
       </c>
       <c r="H3" t="n">
-        <v>8.757166897547673</v>
+        <v>10.52177842172381</v>
       </c>
       <c r="I3" t="n">
-        <v>14.11480616187485</v>
+        <v>14.69025098970324</v>
       </c>
       <c r="J3" t="n">
-        <v>6.465214856926731</v>
+        <v>6.787406873057996</v>
       </c>
       <c r="K3" t="n">
-        <v>10.34283813826715</v>
+        <v>11.53477181475749</v>
       </c>
       <c r="L3" t="n">
-        <v>15.58681260284516</v>
+        <v>11.18889694508616</v>
       </c>
       <c r="M3" t="n">
-        <v>6.772650326967689</v>
+        <v>8.801851974533985</v>
       </c>
       <c r="N3" t="n">
-        <v>11.75821448202157</v>
+        <v>12.74357949037417</v>
       </c>
       <c r="O3" t="n">
-        <v>13.53689120213216</v>
+        <v>13.87163490493413</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.72981875360994</v>
+        <v>22.21252422189228</v>
       </c>
       <c r="C4" t="n">
-        <v>6.422413243228767</v>
+        <v>7.973034081930154</v>
       </c>
       <c r="D4" t="n">
-        <v>6.165079262883859</v>
+        <v>6.754282704207861</v>
       </c>
       <c r="E4" t="n">
-        <v>8.107714456409964</v>
+        <v>8.673540054460503</v>
       </c>
       <c r="F4" t="n">
-        <v>10.87319136489846</v>
+        <v>11.94596366796696</v>
       </c>
       <c r="G4" t="n">
-        <v>8.990118465307946</v>
+        <v>9.50825872596071</v>
       </c>
       <c r="H4" t="n">
-        <v>7.798866882124768</v>
+        <v>7.996585021822852</v>
       </c>
       <c r="I4" t="n">
-        <v>6.673363061609995</v>
+        <v>7.487498588276003</v>
       </c>
       <c r="J4" t="n">
-        <v>9.289809745122326</v>
+        <v>9.868069344961265</v>
       </c>
       <c r="K4" t="n">
-        <v>6.525139578354314</v>
+        <v>6.556537379690409</v>
       </c>
       <c r="L4" t="n">
-        <v>7.542947719591246</v>
+        <v>8.982363610595549</v>
       </c>
       <c r="M4" t="n">
-        <v>14.55018731314661</v>
+        <v>9.219360340659419</v>
       </c>
       <c r="N4" t="n">
-        <v>7.690098922744254</v>
+        <v>8.466025678127128</v>
       </c>
       <c r="O4" t="n">
-        <v>7.952727580809045</v>
+        <v>8.968023843363992</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.559973694315962</v>
+        <v>5.592130196801711</v>
       </c>
       <c r="C5" t="n">
-        <v>7.897394995307415</v>
+        <v>8.613168193627221</v>
       </c>
       <c r="D5" t="n">
-        <v>11.15473986370799</v>
+        <v>11.19887735205916</v>
       </c>
       <c r="E5" t="n">
-        <v>12.32845635830232</v>
+        <v>12.92390102608069</v>
       </c>
       <c r="F5" t="n">
-        <v>7.127589764201173</v>
+        <v>7.361311505706953</v>
       </c>
       <c r="G5" t="n">
-        <v>11.51073717218257</v>
+        <v>11.76215236634313</v>
       </c>
       <c r="H5" t="n">
-        <v>8.512283819568818</v>
+        <v>8.717483074968227</v>
       </c>
       <c r="I5" t="n">
-        <v>8.20316787188027</v>
+        <v>8.440789766146974</v>
       </c>
       <c r="J5" t="n">
-        <v>11.72243038306294</v>
+        <v>10.81433526362367</v>
       </c>
       <c r="K5" t="n">
-        <v>10.58426351064018</v>
+        <v>10.51400438927699</v>
       </c>
       <c r="L5" t="n">
-        <v>7.842557938426226</v>
+        <v>8.203068532160108</v>
       </c>
       <c r="M5" t="n">
-        <v>10.27175289270864</v>
+        <v>11.00924269940958</v>
       </c>
       <c r="N5" t="n">
-        <v>10.39802203114045</v>
+        <v>10.50127484650911</v>
       </c>
       <c r="O5" t="n">
-        <v>9.208229066553136</v>
+        <v>8.742318686486442</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.296619514697857</v>
+        <v>1.369700416411636</v>
       </c>
       <c r="C6" t="n">
-        <v>4.740384820476736</v>
+        <v>5.423932072986627</v>
       </c>
       <c r="D6" t="n">
-        <v>5.138530617792837</v>
+        <v>4.815798500377834</v>
       </c>
       <c r="E6" t="n">
-        <v>3.762123406240665</v>
+        <v>3.636701171525891</v>
       </c>
       <c r="F6" t="n">
-        <v>3.817365816508537</v>
+        <v>4.706933792974422</v>
       </c>
       <c r="G6" t="n">
-        <v>6.407645469596003</v>
+        <v>4.385944505072188</v>
       </c>
       <c r="H6" t="n">
-        <v>3.330621041069892</v>
+        <v>4.14850969698549</v>
       </c>
       <c r="I6" t="n">
-        <v>5.110864742668345</v>
+        <v>3.472439791167067</v>
       </c>
       <c r="J6" t="n">
-        <v>2.617345126380757</v>
+        <v>2.658535313986443</v>
       </c>
       <c r="K6" t="n">
-        <v>6.170682270935314</v>
+        <v>7.741315760596895</v>
       </c>
       <c r="L6" t="n">
-        <v>4.843637806673148</v>
+        <v>5.773136766474688</v>
       </c>
       <c r="M6" t="n">
-        <v>6.749549849638142</v>
+        <v>5.251133866213949</v>
       </c>
       <c r="N6" t="n">
-        <v>3.196653450764274</v>
+        <v>3.538084223655596</v>
       </c>
       <c r="O6" t="n">
-        <v>7.829256418405938</v>
+        <v>7.415161582107641</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.126596581722273</v>
+        <v>12.21067561036234</v>
       </c>
       <c r="C7" t="n">
-        <v>2.279624770233523</v>
+        <v>2.276477792435483</v>
       </c>
       <c r="D7" t="n">
-        <v>1.913381654977431</v>
+        <v>1.880934055234448</v>
       </c>
       <c r="E7" t="n">
-        <v>3.721587563084591</v>
+        <v>3.061119941322288</v>
       </c>
       <c r="F7" t="n">
-        <v>1.784792688035565</v>
+        <v>2.156512637645154</v>
       </c>
       <c r="G7" t="n">
-        <v>2.325534512323003</v>
+        <v>2.597370217502268</v>
       </c>
       <c r="H7" t="n">
-        <v>2.76007675411847</v>
+        <v>2.863384926906305</v>
       </c>
       <c r="I7" t="n">
-        <v>3.219143119989854</v>
+        <v>3.237132041241274</v>
       </c>
       <c r="J7" t="n">
-        <v>3.816788897114096</v>
+        <v>3.673140025492056</v>
       </c>
       <c r="K7" t="n">
-        <v>3.725073840463752</v>
+        <v>2.797756093461756</v>
       </c>
       <c r="L7" t="n">
-        <v>2.567780909146352</v>
+        <v>2.884885461452212</v>
       </c>
       <c r="M7" t="n">
-        <v>3.279438929634634</v>
+        <v>4.375475637945296</v>
       </c>
       <c r="N7" t="n">
-        <v>2.098806025680528</v>
+        <v>2.293580387922897</v>
       </c>
       <c r="O7" t="n">
-        <v>2.378068998868821</v>
+        <v>2.517121246257346</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.416293847460614</v>
+        <v>3.331198774662425</v>
       </c>
       <c r="C8" t="n">
-        <v>1.408885741221482</v>
+        <v>1.38509443490425</v>
       </c>
       <c r="D8" t="n">
-        <v>1.694164328487935</v>
+        <v>1.959204555567077</v>
       </c>
       <c r="E8" t="n">
-        <v>2.477226010167129</v>
+        <v>2.564092389800277</v>
       </c>
       <c r="F8" t="n">
-        <v>1.514084750500108</v>
+        <v>1.670571266212922</v>
       </c>
       <c r="G8" t="n">
-        <v>1.754839435541624</v>
+        <v>1.911375088283461</v>
       </c>
       <c r="H8" t="n">
-        <v>2.177836313080233</v>
+        <v>2.041588219446828</v>
       </c>
       <c r="I8" t="n">
-        <v>2.053509764260443</v>
+        <v>1.880049123742429</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207656338122459</v>
+        <v>2.566124269033158</v>
       </c>
       <c r="K8" t="n">
-        <v>1.867929076902376</v>
+        <v>2.16288470023133</v>
       </c>
       <c r="L8" t="n">
-        <v>3.680973615324593</v>
+        <v>3.554673745957689</v>
       </c>
       <c r="M8" t="n">
-        <v>6.352085147822566</v>
+        <v>2.998704105299218</v>
       </c>
       <c r="N8" t="n">
-        <v>2.118628542296632</v>
+        <v>2.811792779360872</v>
       </c>
       <c r="O8" t="n">
-        <v>1.637402015540546</v>
+        <v>1.938378041965687</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.98437732937028</v>
+        <v>18.3644264568014</v>
       </c>
       <c r="C9" t="n">
-        <v>13.25177458874784</v>
+        <v>4.430321219193573</v>
       </c>
       <c r="D9" t="n">
-        <v>7.556563018177935</v>
+        <v>8.539332674281985</v>
       </c>
       <c r="E9" t="n">
-        <v>5.798391210152489</v>
+        <v>5.496210319025387</v>
       </c>
       <c r="F9" t="n">
-        <v>6.610424912806525</v>
+        <v>4.67717488809181</v>
       </c>
       <c r="G9" t="n">
-        <v>5.576951688242107</v>
+        <v>4.473821498824696</v>
       </c>
       <c r="H9" t="n">
-        <v>9.573644723001024</v>
+        <v>6.86294037432328</v>
       </c>
       <c r="I9" t="n">
-        <v>5.844716015363868</v>
+        <v>3.62119415397097</v>
       </c>
       <c r="J9" t="n">
-        <v>4.763972205470069</v>
+        <v>6.989482685084679</v>
       </c>
       <c r="K9" t="n">
-        <v>5.545580506619227</v>
+        <v>4.665596915757445</v>
       </c>
       <c r="L9" t="n">
-        <v>5.500918440229507</v>
+        <v>4.383765880554509</v>
       </c>
       <c r="M9" t="n">
-        <v>9.144506835540527</v>
+        <v>5.454930454999854</v>
       </c>
       <c r="N9" t="n">
-        <v>6.769853749473874</v>
+        <v>4.707328370513061</v>
       </c>
       <c r="O9" t="n">
-        <v>6.545411666649868</v>
+        <v>6.817496685533188</v>
       </c>
     </row>
   </sheetData>
